--- a/Dishwashers.xlsx
+++ b/Dishwashers.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="89">
   <si>
     <t>Shop</t>
   </si>
@@ -67,120 +67,123 @@
     <t>LG</t>
   </si>
   <si>
+    <t>https://www.homedepot.com/p/Samsung-24-in-Stainless-Steel-Front-Control-Dishwasher-with-3rd-Rack-and-51-dBA-DW80N3030US/306695847</t>
+  </si>
+  <si>
+    <t>https://www.homedepot.com/p/Samsung-24-in-Fingerprint-Resistant-Stainless-Steel-Top-Control-Built-In-Tall-Tub-Dishwasher-with-AutoRelease-Dry-and-48-dBA-DW80R5060US/310600624</t>
+  </si>
+  <si>
+    <t>https://www.homedepot.com/p/Samsung-24-in-in-Black-Stainless-Steel-Top-Control-Built-In-Tall-Tub-Dishwasher-with-Stainless-Steel-Interior-Door-and-55-dBA-DW80R2031UG/316251441</t>
+  </si>
+  <si>
     <t>https://www.homedepot.com/p/Samsung-24-in-Stainless-Steel-Top-Control-Built-In-StormWash-Tall-Tub-Dishwasher-with-AutoRelease-Dry-3rd-Rack-and-42-dBA-DW80R7061US/310601007</t>
   </si>
   <si>
-    <t>https://www.homedepot.com/p/Samsung-24-in-in-Black-Stainless-Steel-Top-Control-Built-In-Tall-Tub-Dishwasher-with-Stainless-Steel-Interior-Door-and-55-dBA-DW80R2031UG/316251441</t>
+    <t>https://www.homedepot.com/p/Samsung-24-in-Stainless-Steel-Front-Control-Built-In-Tall-Tub-Dishwasher-with-Stainless-Steel-Tub-ADA-Compliance-and-52-dBA-DW60R2014US/311949998</t>
   </si>
   <si>
     <t>https://www.homedepot.com/p/Samsung-24-in-Fingerprint-Resistant-Stainless-Steel-Top-Control-Built-In-Tall-Tub-Dishwasher-with-3rd-Rack-AutoRelease-39-dBA-DW80R9950US/309337448</t>
   </si>
   <si>
-    <t>https://www.homedepot.com/p/Samsung-24-in-Stainless-Steel-Front-Control-Dishwasher-with-3rd-Rack-and-51-dBA-DW80N3030US/306695847</t>
-  </si>
-  <si>
     <t>https://www.homedepot.com/p/Samsung-18-in-Top-Control-Dishwasher-in-Fingerprint-Resistant-Stainless-AutoRelease-Door-Drying-46-dBA-DW50T6060US/314317891</t>
   </si>
   <si>
-    <t>https://www.homedepot.com/p/Samsung-24-in-Stainless-Steel-Front-Control-Built-In-Tall-Tub-Dishwasher-with-Stainless-Steel-Tub-ADA-Compliance-and-52-dBA-DW60R2014US/311949998</t>
-  </si>
-  <si>
     <t>https://www.homedepot.com/p/Samsung-24-in-Stainless-Steel-Top-Control-Built-In-Tall-Tub-Dishwasher-with-Stainless-Steel-Interior-Door-and-55-dBA-DW80R2031US/309731132</t>
   </si>
   <si>
-    <t>https://www.homedepot.com/p/Samsung-24-in-Fingerprint-Resistant-Stainless-Steel-Top-Control-Built-In-Tall-Tub-Dishwasher-with-AutoRelease-Dry-and-48-dBA-DW80R5060US/310600624</t>
+    <t>https://www.homedepot.com/p/LG-Electronics-24-in-PrintProof-Stainless-Steel-Front-Control-Built-In-Tall-Tub-Dishwasher-with-QuadWash-3rd-Rack-SmartThinQ-46-dBA-LDF5678SS/310793974</t>
+  </si>
+  <si>
+    <t>https://www.homedepot.com/p/LG-Electronics-24-in-Stainless-Steel-Front-Control-Built-In-Dishwasher-with-Stainless-Steel-Tub-Quadwash-Dynamic-Dry-ADA-48-dBA-ADFD5448AT/314963579</t>
+  </si>
+  <si>
+    <t>https://www.homedepot.com/p/LG-Electronics-24-in-Stainless-Steel-Top-Control-Built-In-Tall-Tub-Smart-Dishwasher-with-QuadWash-TrueSteam-3rd-Rack-42-dBA-LDT7808SS/308727665</t>
   </si>
   <si>
     <t>https://www.homedepot.com/p/LG-Electronics-24-in-PrintProof-Stainless-Steel-Front-Control-Built-In-Tall-Tub-Dishwasher-with-Stainless-Steel-Tub-QuadWash-48-dBA-LDF5545SS/309823463</t>
   </si>
   <si>
+    <t>https://www.homedepot.com/p/LG-Electronics-24-in-PrintProof-Black-Stainless-Steel-Top-Control-Built-In-Smart-Dishwasher-with-TrueSteam-QuadWash-44-dBA-LDP6810BD/313097107</t>
+  </si>
+  <si>
+    <t>https://www.homedepot.com/p/LG-Electronics-24-in-PrintProof-Stainless-Steel-Front-Control-Dishwasher-with-QuadWash-3rd-Rack-Dynamic-Dry-48-dBA-LDFN4542S/315707912</t>
+  </si>
+  <si>
+    <t>https://www.homedepot.com/p/LG-Electronics-24-in-PrintProof-Stainless-Steel-Top-Control-Built-In-Tall-Tub-Dishwasher-QuadWash-3rd-Rack-EasyRack-Plus-46-dBA-LDT5678SS/310622934</t>
+  </si>
+  <si>
     <t>https://www.homedepot.com/p/LG-Electronics-24-in-PrintProof-Stainless-Steel-Top-Control-Built-In-Smart-Dishwasher-with-Stainless-Steel-Tub-and-QuadWash-44-dBA-LDP6810SS/313097089</t>
   </si>
   <si>
-    <t>https://www.homedepot.com/p/LG-Electronics-24-in-PrintProof-Stainless-Steel-Front-Control-Built-In-Tall-Tub-Dishwasher-with-QuadWash-3rd-Rack-SmartThinQ-46-dBA-LDF5678SS/310793974</t>
-  </si>
-  <si>
-    <t>https://www.homedepot.com/p/LG-Electronics-24-in-Stainless-Steel-Top-Control-Built-In-Tall-Tub-Smart-Dishwasher-with-QuadWash-TrueSteam-3rd-Rack-42-dBA-LDT7808SS/308727665</t>
-  </si>
-  <si>
-    <t>https://www.homedepot.com/p/LG-Electronics-24-in-PrintProof-Stainless-Steel-Front-Control-Dishwasher-with-QuadWash-3rd-Rack-Dynamic-Dry-48-dBA-LDFN4542S/315707912</t>
-  </si>
-  <si>
     <t>https://www.homedepot.com/p/LG-Electronics-24-in-in-Stainless-Steel-Front-Control-Dishwasher-with-NeveRust-Stainless-Steel-Tub-and-Dynamic-Dry-LDFN3432T/315736870</t>
   </si>
   <si>
-    <t>https://www.homedepot.com/p/LG-Electronics-24-in-PrintProof-Black-Stainless-Steel-Top-Control-Built-In-Smart-Dishwasher-with-TrueSteam-QuadWash-44-dBA-LDP6810BD/313097107</t>
-  </si>
-  <si>
-    <t>https://www.homedepot.com/p/LG-Electronics-24-in-Stainless-Steel-Front-Control-Built-In-Dishwasher-with-Stainless-Steel-Tub-Quadwash-Dynamic-Dry-ADA-48-dBA-ADFD5448AT/314963579</t>
-  </si>
-  <si>
-    <t>https://www.homedepot.com/p/LG-Electronics-24-in-PrintProof-Stainless-Steel-Top-Control-Built-In-Tall-Tub-Dishwasher-QuadWash-3rd-Rack-EasyRack-Plus-46-dBA-LDT5678SS/310622934</t>
+    <t>Model #DW80N3030US</t>
+  </si>
+  <si>
+    <t>Model #DW80R5060US</t>
+  </si>
+  <si>
+    <t>Model #DW80R2031UG</t>
   </si>
   <si>
     <t>Model #DW80R7061US</t>
   </si>
   <si>
-    <t>Model #DW80R2031UG</t>
+    <t>Model #DW60R2014US</t>
   </si>
   <si>
     <t>Model #DW80R9950US</t>
   </si>
   <si>
-    <t>Model #DW80N3030US</t>
-  </si>
-  <si>
     <t>Model #DW50T6060US</t>
   </si>
   <si>
-    <t>Model #DW60R2014US</t>
-  </si>
-  <si>
     <t>Model #DW80R2031US</t>
   </si>
   <si>
-    <t>Model #DW80R5060US</t>
+    <t>Model #LDF5678SS</t>
+  </si>
+  <si>
+    <t>Model #ADFD5448AT</t>
+  </si>
+  <si>
+    <t>Model #LDT7808SS</t>
   </si>
   <si>
     <t>Model #LDF5545SS</t>
   </si>
   <si>
+    <t>Model #LDP6810BD</t>
+  </si>
+  <si>
+    <t>Model #LDFN4542S</t>
+  </si>
+  <si>
+    <t>Model #LDT5678SS</t>
+  </si>
+  <si>
     <t>Model #LDP6810SS</t>
   </si>
   <si>
-    <t>Model #LDF5678SS</t>
-  </si>
-  <si>
-    <t>Model #LDT7808SS</t>
-  </si>
-  <si>
-    <t>Model #LDFN4542S</t>
-  </si>
-  <si>
     <t>Model #LDFN3432T</t>
   </si>
   <si>
-    <t>Model #LDP6810BD</t>
-  </si>
-  <si>
-    <t>Model #ADFD5448AT</t>
-  </si>
-  <si>
-    <t>Model #LDT5678SS</t>
-  </si>
-  <si>
     <t>No</t>
   </si>
   <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Stainless Steel</t>
+  </si>
+  <si>
     <t>Fingerprint Resistant Stainless Steel</t>
   </si>
   <si>
     <t>Black Stainless Steel</t>
   </si>
   <si>
-    <t>Stainless Steel</t>
-  </si>
-  <si>
     <t>PrintProof Stainless Steel</t>
   </si>
   <si>
@@ -190,70 +193,79 @@
     <t>PrintProof Black Stainless Steel</t>
   </si>
   <si>
+    <t>255</t>
+  </si>
+  <si>
+    <t>265</t>
+  </si>
+  <si>
     <t>239</t>
   </si>
   <si>
-    <t>255</t>
-  </si>
-  <si>
     <t>259</t>
   </si>
   <si>
-    <t>265</t>
-  </si>
-  <si>
     <t>258</t>
   </si>
   <si>
+    <t>51 dBA</t>
+  </si>
+  <si>
+    <t>48 dBA</t>
+  </si>
+  <si>
+    <t>55 dBA</t>
+  </si>
+  <si>
     <t>42 dBA</t>
   </si>
   <si>
-    <t>55 dBA</t>
+    <t>52 dBA</t>
   </si>
   <si>
     <t>39 DBA</t>
   </si>
   <si>
-    <t>51 dBA</t>
-  </si>
-  <si>
     <t>46 dBA</t>
   </si>
   <si>
-    <t>52 dBA</t>
-  </si>
-  <si>
-    <t>48 dBA</t>
-  </si>
-  <si>
     <t>44 dBA</t>
   </si>
   <si>
     <t>50 dBA</t>
   </si>
   <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>33.875</t>
+  </si>
+  <si>
+    <t>33.75 in</t>
+  </si>
+  <si>
     <t>34.5</t>
   </si>
   <si>
-    <t>33.75 in</t>
+    <t>32.06</t>
   </si>
   <si>
     <t>35</t>
   </si>
   <si>
-    <t>33</t>
-  </si>
-  <si>
     <t>32.08</t>
   </si>
   <si>
-    <t>32.06</t>
-  </si>
-  <si>
     <t>33.75</t>
   </si>
   <si>
-    <t>33.875</t>
+    <t>33.60 in</t>
+  </si>
+  <si>
+    <t>32 in</t>
+  </si>
+  <si>
+    <t>33.625 in</t>
   </si>
   <si>
     <t>33.6 in</t>
@@ -262,16 +274,7 @@
     <t>33.6</t>
   </si>
   <si>
-    <t>33.60 in</t>
-  </si>
-  <si>
-    <t>33.625 in</t>
-  </si>
-  <si>
     <t>33.63 in</t>
-  </si>
-  <si>
-    <t>32 in</t>
   </si>
   <si>
     <t>24 In.</t>
@@ -709,28 +712,31 @@
         <v>34</v>
       </c>
       <c r="E2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F2">
-        <v>611</v>
+        <v>1101</v>
+      </c>
+      <c r="G2">
+        <v>588</v>
       </c>
       <c r="H2" t="s">
         <v>51</v>
       </c>
       <c r="I2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -747,28 +753,31 @@
         <v>35</v>
       </c>
       <c r="E3">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="F3">
-        <v>218</v>
+        <v>1566</v>
+      </c>
+      <c r="G3">
+        <v>718</v>
       </c>
       <c r="H3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -785,28 +794,31 @@
         <v>36</v>
       </c>
       <c r="E4">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="F4">
-        <v>932</v>
+        <v>218</v>
+      </c>
+      <c r="G4">
+        <v>566</v>
       </c>
       <c r="H4" t="s">
         <v>51</v>
       </c>
       <c r="I4" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="J4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -823,10 +835,13 @@
         <v>37</v>
       </c>
       <c r="E5">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F5">
-        <v>1101</v>
+        <v>611</v>
+      </c>
+      <c r="G5">
+        <v>858</v>
       </c>
       <c r="H5" t="s">
         <v>51</v>
@@ -835,16 +850,16 @@
         <v>54</v>
       </c>
       <c r="J5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -861,25 +876,28 @@
         <v>38</v>
       </c>
       <c r="E6">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="F6">
-        <v>19</v>
+        <v>74</v>
+      </c>
+      <c r="G6">
+        <v>678</v>
       </c>
       <c r="H6" t="s">
         <v>51</v>
       </c>
       <c r="I6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J6" t="s">
         <v>60</v>
       </c>
       <c r="K6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M6" t="s">
         <v>87</v>
@@ -899,10 +917,13 @@
         <v>39</v>
       </c>
       <c r="E7">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="F7">
-        <v>74</v>
+        <v>932</v>
+      </c>
+      <c r="G7">
+        <v>998</v>
       </c>
       <c r="H7" t="s">
         <v>51</v>
@@ -914,13 +935,13 @@
         <v>61</v>
       </c>
       <c r="K7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -937,28 +958,31 @@
         <v>40</v>
       </c>
       <c r="E8">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="F8">
-        <v>1255</v>
+        <v>19</v>
+      </c>
+      <c r="G8">
+        <v>768</v>
       </c>
       <c r="H8" t="s">
         <v>51</v>
       </c>
       <c r="I8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K8" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="L8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M8" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -975,28 +999,31 @@
         <v>41</v>
       </c>
       <c r="E9">
+        <v>76</v>
+      </c>
+      <c r="F9">
+        <v>1255</v>
+      </c>
+      <c r="G9">
+        <v>478</v>
+      </c>
+      <c r="H9" t="s">
+        <v>51</v>
+      </c>
+      <c r="I9" t="s">
+        <v>53</v>
+      </c>
+      <c r="J9" t="s">
+        <v>60</v>
+      </c>
+      <c r="K9" t="s">
+        <v>66</v>
+      </c>
+      <c r="L9" t="s">
         <v>80</v>
       </c>
-      <c r="F9">
-        <v>1567</v>
-      </c>
-      <c r="H9" t="s">
-        <v>51</v>
-      </c>
-      <c r="I9" t="s">
-        <v>52</v>
-      </c>
-      <c r="J9" t="s">
-        <v>61</v>
-      </c>
-      <c r="K9" t="s">
-        <v>69</v>
-      </c>
-      <c r="L9" t="s">
-        <v>79</v>
-      </c>
       <c r="M9" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -1013,31 +1040,31 @@
         <v>42</v>
       </c>
       <c r="E10">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F10">
-        <v>2815</v>
+        <v>183</v>
       </c>
       <c r="G10">
-        <v>749</v>
+        <v>849</v>
       </c>
       <c r="H10" t="s">
         <v>51</v>
       </c>
       <c r="I10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J10" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K10" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M10" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -1054,28 +1081,31 @@
         <v>43</v>
       </c>
       <c r="E11">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="F11">
-        <v>275</v>
+        <v>4</v>
+      </c>
+      <c r="G11">
+        <v>799</v>
       </c>
       <c r="H11" t="s">
         <v>51</v>
       </c>
       <c r="I11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J11" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K11" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="L11" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -1092,28 +1122,31 @@
         <v>44</v>
       </c>
       <c r="E12">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F12">
-        <v>183</v>
+        <v>548</v>
+      </c>
+      <c r="G12">
+        <v>1149</v>
       </c>
       <c r="H12" t="s">
         <v>51</v>
       </c>
       <c r="I12" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J12" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K12" t="s">
         <v>67</v>
       </c>
       <c r="L12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M12" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1133,25 +1166,28 @@
         <v>86</v>
       </c>
       <c r="F13">
-        <v>549</v>
+        <v>2815</v>
+      </c>
+      <c r="G13">
+        <v>749</v>
       </c>
       <c r="H13" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I13" t="s">
         <v>56</v>
       </c>
       <c r="J13" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K13" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="L13" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M13" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -1168,28 +1204,31 @@
         <v>46</v>
       </c>
       <c r="E14">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F14">
-        <v>489</v>
+        <v>275</v>
+      </c>
+      <c r="G14">
+        <v>1049</v>
       </c>
       <c r="H14" t="s">
         <v>51</v>
       </c>
       <c r="I14" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="J14" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K14" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="L14" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M14" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -1206,28 +1245,31 @@
         <v>47</v>
       </c>
       <c r="E15">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>489</v>
+      </c>
+      <c r="G15">
+        <v>749</v>
       </c>
       <c r="H15" t="s">
         <v>51</v>
       </c>
       <c r="I15" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K15" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="L15" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="M15" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -1244,19 +1286,22 @@
         <v>48</v>
       </c>
       <c r="E16">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F16">
-        <v>275</v>
+        <v>770</v>
+      </c>
+      <c r="G16">
+        <v>849</v>
       </c>
       <c r="H16" t="s">
         <v>51</v>
       </c>
       <c r="I16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J16" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K16" t="s">
         <v>70</v>
@@ -1265,7 +1310,7 @@
         <v>81</v>
       </c>
       <c r="M16" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -1282,28 +1327,31 @@
         <v>49</v>
       </c>
       <c r="E17">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="F17">
-        <v>4</v>
+        <v>275</v>
+      </c>
+      <c r="G17">
+        <v>999</v>
       </c>
       <c r="H17" t="s">
         <v>51</v>
       </c>
       <c r="I17" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J17" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K17" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="L17" t="s">
         <v>85</v>
       </c>
       <c r="M17" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1320,28 +1368,31 @@
         <v>50</v>
       </c>
       <c r="E18">
-        <v>84</v>
+        <v>20</v>
       </c>
       <c r="F18">
-        <v>767</v>
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>649</v>
       </c>
       <c r="H18" t="s">
         <v>51</v>
       </c>
       <c r="I18" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J18" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K18" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="L18" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="M18" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1358,28 +1409,31 @@
         <v>34</v>
       </c>
       <c r="E19">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F19">
-        <v>611</v>
+        <v>1101</v>
+      </c>
+      <c r="G19">
+        <v>588</v>
       </c>
       <c r="H19" t="s">
         <v>51</v>
       </c>
       <c r="I19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J19" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K19" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L19" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M19" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1396,31 +1450,31 @@
         <v>35</v>
       </c>
       <c r="E20">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="F20">
-        <v>218</v>
+        <v>1566</v>
       </c>
       <c r="G20">
-        <v>566</v>
+        <v>718</v>
       </c>
       <c r="H20" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J20" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K20" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L20" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M20" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1437,28 +1491,31 @@
         <v>36</v>
       </c>
       <c r="E21">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="F21">
-        <v>932</v>
+        <v>218</v>
+      </c>
+      <c r="G21">
+        <v>566</v>
       </c>
       <c r="H21" t="s">
         <v>51</v>
       </c>
       <c r="I21" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="J21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K21" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L21" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M21" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1475,10 +1532,13 @@
         <v>37</v>
       </c>
       <c r="E22">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F22">
-        <v>1101</v>
+        <v>611</v>
+      </c>
+      <c r="G22">
+        <v>858</v>
       </c>
       <c r="H22" t="s">
         <v>51</v>
@@ -1487,16 +1547,16 @@
         <v>54</v>
       </c>
       <c r="J22" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K22" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L22" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M22" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1513,25 +1573,28 @@
         <v>38</v>
       </c>
       <c r="E23">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="F23">
-        <v>19</v>
+        <v>74</v>
+      </c>
+      <c r="G23">
+        <v>678</v>
       </c>
       <c r="H23" t="s">
         <v>51</v>
       </c>
       <c r="I23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J23" t="s">
         <v>60</v>
       </c>
       <c r="K23" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L23" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M23" t="s">
         <v>87</v>
@@ -1551,13 +1614,16 @@
         <v>39</v>
       </c>
       <c r="E24">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="F24">
-        <v>74</v>
+        <v>932</v>
+      </c>
+      <c r="G24">
+        <v>998</v>
       </c>
       <c r="H24" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I24" t="s">
         <v>54</v>
@@ -1566,13 +1632,13 @@
         <v>61</v>
       </c>
       <c r="K24" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L24" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M24" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1589,28 +1655,31 @@
         <v>40</v>
       </c>
       <c r="E25">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="F25">
-        <v>1255</v>
+        <v>19</v>
+      </c>
+      <c r="G25">
+        <v>768</v>
       </c>
       <c r="H25" t="s">
         <v>51</v>
       </c>
       <c r="I25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J25" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K25" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="L25" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M25" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -1627,31 +1696,31 @@
         <v>41</v>
       </c>
       <c r="E26">
-        <v>78.813</v>
+        <v>76</v>
       </c>
       <c r="F26">
-        <v>1567</v>
+        <v>1255</v>
       </c>
       <c r="G26">
-        <v>718</v>
+        <v>478</v>
       </c>
       <c r="H26" t="s">
         <v>51</v>
       </c>
       <c r="I26" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J26" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K26" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="L26" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M26" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -1668,28 +1737,31 @@
         <v>42</v>
       </c>
       <c r="E27">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F27">
-        <v>2815</v>
+        <v>183</v>
+      </c>
+      <c r="G27">
+        <v>849</v>
       </c>
       <c r="H27" t="s">
         <v>51</v>
       </c>
       <c r="I27" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J27" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K27" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L27" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M27" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="28" spans="1:13">
@@ -1706,28 +1778,31 @@
         <v>43</v>
       </c>
       <c r="E28">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="F28">
-        <v>276</v>
+        <v>4</v>
+      </c>
+      <c r="G28">
+        <v>799</v>
       </c>
       <c r="H28" t="s">
         <v>51</v>
       </c>
       <c r="I28" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J28" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K28" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="L28" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M28" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="29" spans="1:13">
@@ -1744,28 +1819,31 @@
         <v>44</v>
       </c>
       <c r="E29">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F29">
-        <v>183</v>
+        <v>547</v>
+      </c>
+      <c r="G29">
+        <v>1149</v>
       </c>
       <c r="H29" t="s">
         <v>51</v>
       </c>
       <c r="I29" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J29" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K29" t="s">
         <v>67</v>
       </c>
       <c r="L29" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M29" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="30" spans="1:13">
@@ -1785,25 +1863,28 @@
         <v>86</v>
       </c>
       <c r="F30">
-        <v>549</v>
+        <v>2815</v>
+      </c>
+      <c r="G30">
+        <v>749</v>
       </c>
       <c r="H30" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I30" t="s">
         <v>56</v>
       </c>
       <c r="J30" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K30" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="L30" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M30" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="31" spans="1:13">
@@ -1820,28 +1901,31 @@
         <v>46</v>
       </c>
       <c r="E31">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F31">
-        <v>489</v>
+        <v>275</v>
+      </c>
+      <c r="G31">
+        <v>1049</v>
       </c>
       <c r="H31" t="s">
         <v>51</v>
       </c>
       <c r="I31" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="J31" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K31" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="L31" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M31" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="32" spans="1:13">
@@ -1858,28 +1942,31 @@
         <v>47</v>
       </c>
       <c r="E32">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="F32">
-        <v>1</v>
+        <v>489</v>
+      </c>
+      <c r="G32">
+        <v>749</v>
       </c>
       <c r="H32" t="s">
         <v>51</v>
       </c>
       <c r="I32" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J32" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K32" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="L32" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="M32" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="33" spans="1:13">
@@ -1896,22 +1983,22 @@
         <v>48</v>
       </c>
       <c r="E33">
-        <v>84.5091</v>
+        <v>84</v>
       </c>
       <c r="F33">
-        <v>275</v>
+        <v>770</v>
       </c>
       <c r="G33">
-        <v>1049</v>
+        <v>849</v>
       </c>
       <c r="H33" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I33" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J33" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K33" t="s">
         <v>70</v>
@@ -1920,7 +2007,7 @@
         <v>81</v>
       </c>
       <c r="M33" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="34" spans="1:13">
@@ -1937,28 +2024,31 @@
         <v>49</v>
       </c>
       <c r="E34">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="F34">
-        <v>4</v>
+        <v>275</v>
+      </c>
+      <c r="G34">
+        <v>999</v>
       </c>
       <c r="H34" t="s">
         <v>51</v>
       </c>
       <c r="I34" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J34" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K34" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="L34" t="s">
         <v>85</v>
       </c>
       <c r="M34" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="35" spans="1:13">
@@ -1975,28 +2065,31 @@
         <v>50</v>
       </c>
       <c r="E35">
-        <v>84</v>
+        <v>20</v>
       </c>
       <c r="F35">
-        <v>767</v>
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>649</v>
       </c>
       <c r="H35" t="s">
         <v>51</v>
       </c>
       <c r="I35" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J35" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K35" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="L35" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="M35" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/Dishwashers.xlsx
+++ b/Dishwashers.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="88">
   <si>
     <t>Shop</t>
   </si>
@@ -67,214 +67,211 @@
     <t>LG</t>
   </si>
   <si>
+    <t>https://www.homedepot.com/p/Samsung-24-in-Fingerprint-Resistant-Stainless-Steel-Top-Control-Built-In-Tall-Tub-Dishwasher-with-AutoRelease-Dry-and-48-dBA-DW80R5060US/310600624</t>
+  </si>
+  <si>
+    <t>https://www.homedepot.com/p/Samsung-24-in-Fingerprint-Resistant-Stainless-Steel-Top-Control-Built-In-Tall-Tub-Dishwasher-with-3rd-Rack-AutoRelease-39-dBA-DW80R9950US/309337448</t>
+  </si>
+  <si>
+    <t>https://www.homedepot.com/p/Samsung-24-in-Stainless-Steel-Top-Control-Built-In-Tall-Tub-Dishwasher-with-Stainless-Steel-Interior-Door-and-55-dBA-DW80R2031US/309731132</t>
+  </si>
+  <si>
     <t>https://www.homedepot.com/p/Samsung-24-in-Stainless-Steel-Front-Control-Dishwasher-with-3rd-Rack-and-51-dBA-DW80N3030US/306695847</t>
   </si>
   <si>
-    <t>https://www.homedepot.com/p/Samsung-24-in-Fingerprint-Resistant-Stainless-Steel-Top-Control-Built-In-Tall-Tub-Dishwasher-with-AutoRelease-Dry-and-48-dBA-DW80R5060US/310600624</t>
-  </si>
-  <si>
     <t>https://www.homedepot.com/p/Samsung-24-in-in-Black-Stainless-Steel-Top-Control-Built-In-Tall-Tub-Dishwasher-with-Stainless-Steel-Interior-Door-and-55-dBA-DW80R2031UG/316251441</t>
   </si>
   <si>
+    <t>https://www.homedepot.com/p/Samsung-18-in-Top-Control-Dishwasher-in-Fingerprint-Resistant-Stainless-AutoRelease-Door-Drying-46-dBA-DW50T6060US/314317891</t>
+  </si>
+  <si>
+    <t>https://www.homedepot.com/p/Samsung-24-in-Stainless-Steel-Front-Control-Built-In-Tall-Tub-Dishwasher-with-Stainless-Steel-Tub-ADA-Compliance-and-52-dBA-DW60R2014US/311949998</t>
+  </si>
+  <si>
     <t>https://www.homedepot.com/p/Samsung-24-in-Stainless-Steel-Top-Control-Built-In-StormWash-Tall-Tub-Dishwasher-with-AutoRelease-Dry-3rd-Rack-and-42-dBA-DW80R7061US/310601007</t>
   </si>
   <si>
-    <t>https://www.homedepot.com/p/Samsung-24-in-Stainless-Steel-Front-Control-Built-In-Tall-Tub-Dishwasher-with-Stainless-Steel-Tub-ADA-Compliance-and-52-dBA-DW60R2014US/311949998</t>
-  </si>
-  <si>
-    <t>https://www.homedepot.com/p/Samsung-24-in-Fingerprint-Resistant-Stainless-Steel-Top-Control-Built-In-Tall-Tub-Dishwasher-with-3rd-Rack-AutoRelease-39-dBA-DW80R9950US/309337448</t>
-  </si>
-  <si>
-    <t>https://www.homedepot.com/p/Samsung-18-in-Top-Control-Dishwasher-in-Fingerprint-Resistant-Stainless-AutoRelease-Door-Drying-46-dBA-DW50T6060US/314317891</t>
-  </si>
-  <si>
-    <t>https://www.homedepot.com/p/Samsung-24-in-Stainless-Steel-Top-Control-Built-In-Tall-Tub-Dishwasher-with-Stainless-Steel-Interior-Door-and-55-dBA-DW80R2031US/309731132</t>
+    <t>https://www.homedepot.com/p/LG-Electronics-24-in-PrintProof-Black-Stainless-Steel-Top-Control-Built-In-Smart-Dishwasher-with-TrueSteam-QuadWash-44-dBA-LDP6810BD/313097107</t>
+  </si>
+  <si>
+    <t>https://www.homedepot.com/p/LG-Electronics-24-in-Stainless-Steel-Front-Control-Built-In-Dishwasher-with-Stainless-Steel-Tub-Quadwash-Dynamic-Dry-ADA-48-dBA-ADFD5448AT/314963579</t>
+  </si>
+  <si>
+    <t>https://www.homedepot.com/p/LG-Electronics-24-in-in-Stainless-Steel-Front-Control-Dishwasher-with-NeveRust-Stainless-Steel-Tub-and-Dynamic-Dry-LDFN3432T/315736870</t>
+  </si>
+  <si>
+    <t>https://www.homedepot.com/p/LG-Electronics-24-in-Stainless-Steel-Top-Control-Built-In-Tall-Tub-Smart-Dishwasher-with-QuadWash-TrueSteam-3rd-Rack-42-dBA-LDT7808SS/308727665</t>
+  </si>
+  <si>
+    <t>https://www.homedepot.com/p/LG-Electronics-24-in-PrintProof-Stainless-Steel-Top-Control-Built-In-Smart-Dishwasher-with-Stainless-Steel-Tub-and-QuadWash-44-dBA-LDP6810SS/313097089</t>
+  </si>
+  <si>
+    <t>https://www.homedepot.com/p/LG-Electronics-24-in-PrintProof-Stainless-Steel-Front-Control-Dishwasher-with-QuadWash-3rd-Rack-Dynamic-Dry-48-dBA-LDFN4542S/315707912</t>
   </si>
   <si>
     <t>https://www.homedepot.com/p/LG-Electronics-24-in-PrintProof-Stainless-Steel-Front-Control-Built-In-Tall-Tub-Dishwasher-with-QuadWash-3rd-Rack-SmartThinQ-46-dBA-LDF5678SS/310793974</t>
   </si>
   <si>
-    <t>https://www.homedepot.com/p/LG-Electronics-24-in-Stainless-Steel-Front-Control-Built-In-Dishwasher-with-Stainless-Steel-Tub-Quadwash-Dynamic-Dry-ADA-48-dBA-ADFD5448AT/314963579</t>
-  </si>
-  <si>
-    <t>https://www.homedepot.com/p/LG-Electronics-24-in-Stainless-Steel-Top-Control-Built-In-Tall-Tub-Smart-Dishwasher-with-QuadWash-TrueSteam-3rd-Rack-42-dBA-LDT7808SS/308727665</t>
+    <t>https://www.homedepot.com/p/LG-Electronics-24-in-PrintProof-Stainless-Steel-Top-Control-Built-In-Tall-Tub-Dishwasher-QuadWash-3rd-Rack-EasyRack-Plus-46-dBA-LDT5678SS/310622934</t>
   </si>
   <si>
     <t>https://www.homedepot.com/p/LG-Electronics-24-in-PrintProof-Stainless-Steel-Front-Control-Built-In-Tall-Tub-Dishwasher-with-Stainless-Steel-Tub-QuadWash-48-dBA-LDF5545SS/309823463</t>
   </si>
   <si>
-    <t>https://www.homedepot.com/p/LG-Electronics-24-in-PrintProof-Black-Stainless-Steel-Top-Control-Built-In-Smart-Dishwasher-with-TrueSteam-QuadWash-44-dBA-LDP6810BD/313097107</t>
-  </si>
-  <si>
-    <t>https://www.homedepot.com/p/LG-Electronics-24-in-PrintProof-Stainless-Steel-Front-Control-Dishwasher-with-QuadWash-3rd-Rack-Dynamic-Dry-48-dBA-LDFN4542S/315707912</t>
-  </si>
-  <si>
-    <t>https://www.homedepot.com/p/LG-Electronics-24-in-PrintProof-Stainless-Steel-Top-Control-Built-In-Tall-Tub-Dishwasher-QuadWash-3rd-Rack-EasyRack-Plus-46-dBA-LDT5678SS/310622934</t>
-  </si>
-  <si>
-    <t>https://www.homedepot.com/p/LG-Electronics-24-in-PrintProof-Stainless-Steel-Top-Control-Built-In-Smart-Dishwasher-with-Stainless-Steel-Tub-and-QuadWash-44-dBA-LDP6810SS/313097089</t>
-  </si>
-  <si>
-    <t>https://www.homedepot.com/p/LG-Electronics-24-in-in-Stainless-Steel-Front-Control-Dishwasher-with-NeveRust-Stainless-Steel-Tub-and-Dynamic-Dry-LDFN3432T/315736870</t>
+    <t>Model #DW80R5060US</t>
+  </si>
+  <si>
+    <t>Model #DW80R9950US</t>
+  </si>
+  <si>
+    <t>Model #DW80R2031US</t>
   </si>
   <si>
     <t>Model #DW80N3030US</t>
   </si>
   <si>
-    <t>Model #DW80R5060US</t>
-  </si>
-  <si>
     <t>Model #DW80R2031UG</t>
   </si>
   <si>
+    <t>Model #DW50T6060US</t>
+  </si>
+  <si>
+    <t>Model #DW60R2014US</t>
+  </si>
+  <si>
     <t>Model #DW80R7061US</t>
   </si>
   <si>
-    <t>Model #DW60R2014US</t>
-  </si>
-  <si>
-    <t>Model #DW80R9950US</t>
-  </si>
-  <si>
-    <t>Model #DW50T6060US</t>
-  </si>
-  <si>
-    <t>Model #DW80R2031US</t>
+    <t>Model #LDP6810BD</t>
+  </si>
+  <si>
+    <t>Model #ADFD5448AT</t>
+  </si>
+  <si>
+    <t>Model #LDFN3432T</t>
+  </si>
+  <si>
+    <t>Model #LDT7808SS</t>
+  </si>
+  <si>
+    <t>Model #LDP6810SS</t>
+  </si>
+  <si>
+    <t>Model #LDFN4542S</t>
   </si>
   <si>
     <t>Model #LDF5678SS</t>
   </si>
   <si>
-    <t>Model #ADFD5448AT</t>
-  </si>
-  <si>
-    <t>Model #LDT7808SS</t>
+    <t>Model #LDT5678SS</t>
   </si>
   <si>
     <t>Model #LDF5545SS</t>
   </si>
   <si>
-    <t>Model #LDP6810BD</t>
-  </si>
-  <si>
-    <t>Model #LDFN4542S</t>
-  </si>
-  <si>
-    <t>Model #LDT5678SS</t>
-  </si>
-  <si>
-    <t>Model #LDP6810SS</t>
-  </si>
-  <si>
-    <t>Model #LDFN3432T</t>
-  </si>
-  <si>
     <t>No</t>
   </si>
   <si>
-    <t>Yes</t>
+    <t>Fingerprint Resistant Stainless Steel</t>
   </si>
   <si>
     <t>Stainless Steel</t>
   </si>
   <si>
-    <t>Fingerprint Resistant Stainless Steel</t>
-  </si>
-  <si>
     <t>Black Stainless Steel</t>
   </si>
   <si>
+    <t>PrintProof Black Stainless Steel</t>
+  </si>
+  <si>
+    <t>Printproof Stainless Steel</t>
+  </si>
+  <si>
     <t>PrintProof Stainless Steel</t>
   </si>
   <si>
-    <t>Printproof Stainless Steel</t>
-  </si>
-  <si>
-    <t>PrintProof Black Stainless Steel</t>
+    <t>265</t>
+  </si>
+  <si>
+    <t>239</t>
   </si>
   <si>
     <t>255</t>
   </si>
   <si>
-    <t>265</t>
-  </si>
-  <si>
-    <t>239</t>
-  </si>
-  <si>
     <t>259</t>
   </si>
   <si>
     <t>258</t>
   </si>
   <si>
+    <t>48 dBA</t>
+  </si>
+  <si>
+    <t>39 DBA</t>
+  </si>
+  <si>
+    <t>55 dBA</t>
+  </si>
+  <si>
     <t>51 dBA</t>
   </si>
   <si>
-    <t>48 dBA</t>
-  </si>
-  <si>
-    <t>55 dBA</t>
+    <t>46 dBA</t>
+  </si>
+  <si>
+    <t>52 dBA</t>
   </si>
   <si>
     <t>42 dBA</t>
   </si>
   <si>
-    <t>52 dBA</t>
-  </si>
-  <si>
-    <t>39 DBA</t>
-  </si>
-  <si>
-    <t>46 dBA</t>
-  </si>
-  <si>
     <t>44 dBA</t>
   </si>
   <si>
     <t>50 dBA</t>
   </si>
   <si>
+    <t>33.875</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>33.75</t>
+  </si>
+  <si>
     <t>33</t>
   </si>
   <si>
-    <t>33.875</t>
-  </si>
-  <si>
     <t>33.75 in</t>
   </si>
   <si>
+    <t>32.08</t>
+  </si>
+  <si>
+    <t>32.06</t>
+  </si>
+  <si>
     <t>34.5</t>
   </si>
   <si>
-    <t>32.06</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>32.08</t>
-  </si>
-  <si>
-    <t>33.75</t>
+    <t>33.6</t>
+  </si>
+  <si>
+    <t>32 in</t>
+  </si>
+  <si>
+    <t>33.63 in</t>
+  </si>
+  <si>
+    <t>33.625 in</t>
   </si>
   <si>
     <t>33.60 in</t>
   </si>
   <si>
-    <t>32 in</t>
-  </si>
-  <si>
-    <t>33.625 in</t>
-  </si>
-  <si>
     <t>33.6 in</t>
-  </si>
-  <si>
-    <t>33.6</t>
-  </si>
-  <si>
-    <t>33.63 in</t>
   </si>
   <si>
     <t>24 In.</t>
@@ -712,31 +709,31 @@
         <v>34</v>
       </c>
       <c r="E2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F2">
-        <v>1101</v>
+        <v>1567</v>
       </c>
       <c r="G2">
-        <v>588</v>
+        <v>718</v>
       </c>
       <c r="H2" t="s">
         <v>51</v>
       </c>
       <c r="I2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -753,31 +750,31 @@
         <v>35</v>
       </c>
       <c r="E3">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="F3">
-        <v>1566</v>
+        <v>932</v>
       </c>
       <c r="G3">
-        <v>718</v>
+        <v>998</v>
       </c>
       <c r="H3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I3" t="s">
         <v>52</v>
       </c>
-      <c r="I3" t="s">
-        <v>54</v>
-      </c>
       <c r="J3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -794,31 +791,31 @@
         <v>36</v>
       </c>
       <c r="E4">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="F4">
-        <v>218</v>
+        <v>1255</v>
       </c>
       <c r="G4">
-        <v>566</v>
+        <v>478</v>
       </c>
       <c r="H4" t="s">
         <v>51</v>
       </c>
       <c r="I4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -835,31 +832,31 @@
         <v>37</v>
       </c>
       <c r="E5">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F5">
-        <v>611</v>
+        <v>1101</v>
       </c>
       <c r="G5">
-        <v>858</v>
+        <v>588</v>
       </c>
       <c r="H5" t="s">
         <v>51</v>
       </c>
       <c r="I5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -876,31 +873,31 @@
         <v>38</v>
       </c>
       <c r="E6">
-        <v>68</v>
+        <v>92</v>
       </c>
       <c r="F6">
-        <v>74</v>
+        <v>218</v>
       </c>
       <c r="G6">
-        <v>678</v>
+        <v>566</v>
       </c>
       <c r="H6" t="s">
         <v>51</v>
       </c>
       <c r="I6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J6" t="s">
         <v>60</v>
       </c>
       <c r="K6" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="L6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -917,28 +914,28 @@
         <v>39</v>
       </c>
       <c r="E7">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="F7">
-        <v>932</v>
+        <v>19</v>
       </c>
       <c r="G7">
-        <v>998</v>
+        <v>768</v>
       </c>
       <c r="H7" t="s">
         <v>51</v>
       </c>
       <c r="I7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J7" t="s">
         <v>61</v>
       </c>
       <c r="K7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="L7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M7" t="s">
         <v>87</v>
@@ -958,13 +955,13 @@
         <v>40</v>
       </c>
       <c r="E8">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="F8">
-        <v>19</v>
+        <v>74</v>
       </c>
       <c r="G8">
-        <v>768</v>
+        <v>678</v>
       </c>
       <c r="H8" t="s">
         <v>51</v>
@@ -973,16 +970,16 @@
         <v>53</v>
       </c>
       <c r="J8" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="K8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="L8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -999,31 +996,31 @@
         <v>41</v>
       </c>
       <c r="E9">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="F9">
-        <v>1255</v>
+        <v>611</v>
       </c>
       <c r="G9">
-        <v>478</v>
+        <v>858</v>
       </c>
       <c r="H9" t="s">
         <v>51</v>
       </c>
       <c r="I9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K9" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="L9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -1040,31 +1037,31 @@
         <v>42</v>
       </c>
       <c r="E10">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F10">
-        <v>183</v>
+        <v>275</v>
       </c>
       <c r="G10">
-        <v>849</v>
+        <v>1049</v>
       </c>
       <c r="H10" t="s">
         <v>51</v>
       </c>
       <c r="I10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K10" t="s">
         <v>70</v>
       </c>
       <c r="L10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -1096,16 +1093,16 @@
         <v>53</v>
       </c>
       <c r="J11" t="s">
+        <v>62</v>
+      </c>
+      <c r="K11" t="s">
         <v>63</v>
       </c>
-      <c r="K11" t="s">
-        <v>65</v>
-      </c>
       <c r="L11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -1122,31 +1119,31 @@
         <v>44</v>
       </c>
       <c r="E12">
-        <v>86</v>
+        <v>20</v>
       </c>
       <c r="F12">
-        <v>548</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>1149</v>
+        <v>649</v>
       </c>
       <c r="H12" t="s">
         <v>51</v>
       </c>
       <c r="I12" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K12" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="L12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1166,28 +1163,28 @@
         <v>86</v>
       </c>
       <c r="F13">
-        <v>2815</v>
+        <v>549</v>
       </c>
       <c r="G13">
-        <v>749</v>
+        <v>1149</v>
       </c>
       <c r="H13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I13" t="s">
         <v>56</v>
       </c>
       <c r="J13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K13" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="L13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -1207,28 +1204,28 @@
         <v>86</v>
       </c>
       <c r="F14">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G14">
-        <v>1049</v>
+        <v>999</v>
       </c>
       <c r="H14" t="s">
         <v>51</v>
       </c>
       <c r="I14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L14" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="M14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -1257,19 +1254,19 @@
         <v>51</v>
       </c>
       <c r="I15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J15" t="s">
+        <v>62</v>
+      </c>
+      <c r="K15" t="s">
         <v>63</v>
       </c>
-      <c r="K15" t="s">
-        <v>65</v>
-      </c>
       <c r="L15" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="M15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -1289,7 +1286,7 @@
         <v>84</v>
       </c>
       <c r="F16">
-        <v>770</v>
+        <v>183</v>
       </c>
       <c r="G16">
         <v>849</v>
@@ -1298,19 +1295,19 @@
         <v>51</v>
       </c>
       <c r="I16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K16" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="L16" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="M16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -1327,31 +1324,31 @@
         <v>49</v>
       </c>
       <c r="E17">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F17">
-        <v>275</v>
+        <v>767</v>
       </c>
       <c r="G17">
-        <v>999</v>
+        <v>849</v>
       </c>
       <c r="H17" t="s">
         <v>51</v>
       </c>
       <c r="I17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K17" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="L17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1368,31 +1365,31 @@
         <v>50</v>
       </c>
       <c r="E18">
-        <v>20</v>
+        <v>86</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>2815</v>
       </c>
       <c r="G18">
-        <v>649</v>
+        <v>749</v>
       </c>
       <c r="H18" t="s">
         <v>51</v>
       </c>
       <c r="I18" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="J18" t="s">
+        <v>62</v>
+      </c>
+      <c r="K18" t="s">
         <v>63</v>
       </c>
-      <c r="K18" t="s">
-        <v>72</v>
-      </c>
       <c r="L18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1409,31 +1406,31 @@
         <v>34</v>
       </c>
       <c r="E19">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F19">
-        <v>1101</v>
+        <v>1567</v>
       </c>
       <c r="G19">
-        <v>588</v>
+        <v>718</v>
       </c>
       <c r="H19" t="s">
         <v>51</v>
       </c>
       <c r="I19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1450,31 +1447,31 @@
         <v>35</v>
       </c>
       <c r="E20">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="F20">
-        <v>1566</v>
+        <v>932</v>
       </c>
       <c r="G20">
-        <v>718</v>
+        <v>998</v>
       </c>
       <c r="H20" t="s">
+        <v>51</v>
+      </c>
+      <c r="I20" t="s">
         <v>52</v>
       </c>
-      <c r="I20" t="s">
-        <v>54</v>
-      </c>
       <c r="J20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1491,31 +1488,31 @@
         <v>36</v>
       </c>
       <c r="E21">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="F21">
-        <v>218</v>
+        <v>1255</v>
       </c>
       <c r="G21">
-        <v>566</v>
+        <v>478</v>
       </c>
       <c r="H21" t="s">
         <v>51</v>
       </c>
       <c r="I21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K21" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M21" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1532,31 +1529,31 @@
         <v>37</v>
       </c>
       <c r="E22">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F22">
-        <v>611</v>
+        <v>1101</v>
       </c>
       <c r="G22">
-        <v>858</v>
+        <v>588</v>
       </c>
       <c r="H22" t="s">
         <v>51</v>
       </c>
       <c r="I22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K22" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L22" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1573,31 +1570,31 @@
         <v>38</v>
       </c>
       <c r="E23">
-        <v>68</v>
+        <v>92</v>
       </c>
       <c r="F23">
-        <v>74</v>
+        <v>218</v>
       </c>
       <c r="G23">
-        <v>678</v>
+        <v>566</v>
       </c>
       <c r="H23" t="s">
         <v>51</v>
       </c>
       <c r="I23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J23" t="s">
         <v>60</v>
       </c>
       <c r="K23" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="L23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1614,28 +1611,28 @@
         <v>39</v>
       </c>
       <c r="E24">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="F24">
-        <v>932</v>
+        <v>19</v>
       </c>
       <c r="G24">
-        <v>998</v>
+        <v>768</v>
       </c>
       <c r="H24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J24" t="s">
         <v>61</v>
       </c>
       <c r="K24" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="L24" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M24" t="s">
         <v>87</v>
@@ -1655,13 +1652,13 @@
         <v>40</v>
       </c>
       <c r="E25">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="F25">
-        <v>19</v>
+        <v>74</v>
       </c>
       <c r="G25">
-        <v>768</v>
+        <v>678</v>
       </c>
       <c r="H25" t="s">
         <v>51</v>
@@ -1670,16 +1667,16 @@
         <v>53</v>
       </c>
       <c r="J25" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="K25" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="L25" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M25" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -1696,31 +1693,31 @@
         <v>41</v>
       </c>
       <c r="E26">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="F26">
-        <v>1255</v>
+        <v>611</v>
       </c>
       <c r="G26">
-        <v>478</v>
+        <v>858</v>
       </c>
       <c r="H26" t="s">
         <v>51</v>
       </c>
       <c r="I26" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J26" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K26" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="L26" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M26" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -1737,31 +1734,31 @@
         <v>42</v>
       </c>
       <c r="E27">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F27">
-        <v>183</v>
+        <v>276</v>
       </c>
       <c r="G27">
-        <v>849</v>
+        <v>1049</v>
       </c>
       <c r="H27" t="s">
         <v>51</v>
       </c>
       <c r="I27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J27" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K27" t="s">
         <v>70</v>
       </c>
       <c r="L27" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M27" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="28" spans="1:13">
@@ -1793,16 +1790,16 @@
         <v>53</v>
       </c>
       <c r="J28" t="s">
+        <v>62</v>
+      </c>
+      <c r="K28" t="s">
         <v>63</v>
       </c>
-      <c r="K28" t="s">
-        <v>65</v>
-      </c>
       <c r="L28" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M28" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="29" spans="1:13">
@@ -1819,31 +1816,31 @@
         <v>44</v>
       </c>
       <c r="E29">
-        <v>86</v>
+        <v>20</v>
       </c>
       <c r="F29">
-        <v>547</v>
+        <v>1</v>
       </c>
       <c r="G29">
-        <v>1149</v>
+        <v>649</v>
       </c>
       <c r="H29" t="s">
         <v>51</v>
       </c>
       <c r="I29" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J29" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K29" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="L29" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M29" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="30" spans="1:13">
@@ -1863,28 +1860,28 @@
         <v>86</v>
       </c>
       <c r="F30">
-        <v>2815</v>
+        <v>549</v>
       </c>
       <c r="G30">
-        <v>749</v>
+        <v>1149</v>
       </c>
       <c r="H30" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I30" t="s">
         <v>56</v>
       </c>
       <c r="J30" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K30" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="L30" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M30" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="31" spans="1:13">
@@ -1904,28 +1901,28 @@
         <v>86</v>
       </c>
       <c r="F31">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G31">
-        <v>1049</v>
+        <v>999</v>
       </c>
       <c r="H31" t="s">
         <v>51</v>
       </c>
       <c r="I31" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J31" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K31" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L31" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="M31" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="32" spans="1:13">
@@ -1954,19 +1951,19 @@
         <v>51</v>
       </c>
       <c r="I32" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J32" t="s">
+        <v>62</v>
+      </c>
+      <c r="K32" t="s">
         <v>63</v>
       </c>
-      <c r="K32" t="s">
-        <v>65</v>
-      </c>
       <c r="L32" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="M32" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="33" spans="1:13">
@@ -1986,28 +1983,28 @@
         <v>84</v>
       </c>
       <c r="F33">
-        <v>770</v>
+        <v>183</v>
       </c>
       <c r="G33">
         <v>849</v>
       </c>
       <c r="H33" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I33" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J33" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K33" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="L33" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="M33" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="34" spans="1:13">
@@ -2024,31 +2021,31 @@
         <v>49</v>
       </c>
       <c r="E34">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F34">
-        <v>275</v>
+        <v>767</v>
       </c>
       <c r="G34">
-        <v>999</v>
+        <v>849</v>
       </c>
       <c r="H34" t="s">
         <v>51</v>
       </c>
       <c r="I34" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J34" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K34" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="L34" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M34" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="35" spans="1:13">
@@ -2065,31 +2062,31 @@
         <v>50</v>
       </c>
       <c r="E35">
-        <v>20</v>
+        <v>86</v>
       </c>
       <c r="F35">
-        <v>1</v>
+        <v>2815</v>
       </c>
       <c r="G35">
-        <v>649</v>
+        <v>749</v>
       </c>
       <c r="H35" t="s">
         <v>51</v>
       </c>
       <c r="I35" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="J35" t="s">
+        <v>62</v>
+      </c>
+      <c r="K35" t="s">
         <v>63</v>
       </c>
-      <c r="K35" t="s">
-        <v>72</v>
-      </c>
       <c r="L35" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M35" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/Dishwashers.xlsx
+++ b/Dishwashers.xlsx
@@ -67,55 +67,67 @@
     <t>LG</t>
   </si>
   <si>
+    <t>https://www.homedepot.com/p/Samsung-18-in-Top-Control-Dishwasher-in-Fingerprint-Resistant-Stainless-AutoRelease-Door-Drying-46-dBA-DW50T6060US/314317891</t>
+  </si>
+  <si>
+    <t>https://www.homedepot.com/p/Samsung-24-in-Stainless-Steel-Top-Control-Built-In-StormWash-Tall-Tub-Dishwasher-with-AutoRelease-Dry-3rd-Rack-and-42-dBA-DW80R7061US/310601007</t>
+  </si>
+  <si>
+    <t>https://www.homedepot.com/p/Samsung-24-in-Stainless-Steel-Front-Control-Dishwasher-with-3rd-Rack-and-51-dBA-DW80N3030US/306695847</t>
+  </si>
+  <si>
+    <t>https://www.homedepot.com/p/Samsung-24-in-Stainless-Steel-Top-Control-Built-In-Tall-Tub-Dishwasher-with-Stainless-Steel-Interior-Door-and-55-dBA-DW80R2031US/309731132</t>
+  </si>
+  <si>
     <t>https://www.homedepot.com/p/Samsung-24-in-Fingerprint-Resistant-Stainless-Steel-Top-Control-Built-In-Tall-Tub-Dishwasher-with-AutoRelease-Dry-and-48-dBA-DW80R5060US/310600624</t>
   </si>
   <si>
     <t>https://www.homedepot.com/p/Samsung-24-in-Fingerprint-Resistant-Stainless-Steel-Top-Control-Built-In-Tall-Tub-Dishwasher-with-3rd-Rack-AutoRelease-39-dBA-DW80R9950US/309337448</t>
   </si>
   <si>
-    <t>https://www.homedepot.com/p/Samsung-24-in-Stainless-Steel-Top-Control-Built-In-Tall-Tub-Dishwasher-with-Stainless-Steel-Interior-Door-and-55-dBA-DW80R2031US/309731132</t>
-  </si>
-  <si>
-    <t>https://www.homedepot.com/p/Samsung-24-in-Stainless-Steel-Front-Control-Dishwasher-with-3rd-Rack-and-51-dBA-DW80N3030US/306695847</t>
-  </si>
-  <si>
     <t>https://www.homedepot.com/p/Samsung-24-in-in-Black-Stainless-Steel-Top-Control-Built-In-Tall-Tub-Dishwasher-with-Stainless-Steel-Interior-Door-and-55-dBA-DW80R2031UG/316251441</t>
   </si>
   <si>
-    <t>https://www.homedepot.com/p/Samsung-18-in-Top-Control-Dishwasher-in-Fingerprint-Resistant-Stainless-AutoRelease-Door-Drying-46-dBA-DW50T6060US/314317891</t>
-  </si>
-  <si>
     <t>https://www.homedepot.com/p/Samsung-24-in-Stainless-Steel-Front-Control-Built-In-Tall-Tub-Dishwasher-with-Stainless-Steel-Tub-ADA-Compliance-and-52-dBA-DW60R2014US/311949998</t>
   </si>
   <si>
-    <t>https://www.homedepot.com/p/Samsung-24-in-Stainless-Steel-Top-Control-Built-In-StormWash-Tall-Tub-Dishwasher-with-AutoRelease-Dry-3rd-Rack-and-42-dBA-DW80R7061US/310601007</t>
+    <t>https://www.homedepot.com/p/LG-Electronics-24-in-Stainless-Steel-Top-Control-Built-In-Tall-Tub-Smart-Dishwasher-with-QuadWash-TrueSteam-3rd-Rack-42-dBA-LDT7808SS/308727665</t>
+  </si>
+  <si>
+    <t>https://www.homedepot.com/p/LG-Electronics-24-in-PrintProof-Stainless-Steel-Front-Control-Built-In-Tall-Tub-Dishwasher-with-Stainless-Steel-Tub-QuadWash-48-dBA-LDF5545SS/309823463</t>
+  </si>
+  <si>
+    <t>https://www.homedepot.com/p/LG-Electronics-24-in-PrintProof-Stainless-Steel-Top-Control-Built-In-Tall-Tub-Dishwasher-QuadWash-3rd-Rack-EasyRack-Plus-46-dBA-LDT5678SS/310622934</t>
+  </si>
+  <si>
+    <t>https://www.homedepot.com/p/LG-Electronics-24-in-PrintProof-Stainless-Steel-Top-Control-Built-In-Smart-Dishwasher-with-Stainless-Steel-Tub-and-QuadWash-44-dBA-LDP6810SS/313097089</t>
+  </si>
+  <si>
+    <t>https://www.homedepot.com/p/LG-Electronics-24-in-Stainless-Steel-Front-Control-Built-In-Dishwasher-with-Stainless-Steel-Tub-Quadwash-Dynamic-Dry-ADA-48-dBA-ADFD5448AT/314963579</t>
   </si>
   <si>
     <t>https://www.homedepot.com/p/LG-Electronics-24-in-PrintProof-Black-Stainless-Steel-Top-Control-Built-In-Smart-Dishwasher-with-TrueSteam-QuadWash-44-dBA-LDP6810BD/313097107</t>
   </si>
   <si>
-    <t>https://www.homedepot.com/p/LG-Electronics-24-in-Stainless-Steel-Front-Control-Built-In-Dishwasher-with-Stainless-Steel-Tub-Quadwash-Dynamic-Dry-ADA-48-dBA-ADFD5448AT/314963579</t>
+    <t>https://www.homedepot.com/p/LG-Electronics-24-in-PrintProof-Stainless-Steel-Front-Control-Built-In-Tall-Tub-Dishwasher-with-QuadWash-3rd-Rack-SmartThinQ-46-dBA-LDF5678SS/310793974</t>
   </si>
   <si>
     <t>https://www.homedepot.com/p/LG-Electronics-24-in-in-Stainless-Steel-Front-Control-Dishwasher-with-NeveRust-Stainless-Steel-Tub-and-Dynamic-Dry-LDFN3432T/315736870</t>
   </si>
   <si>
-    <t>https://www.homedepot.com/p/LG-Electronics-24-in-Stainless-Steel-Top-Control-Built-In-Tall-Tub-Smart-Dishwasher-with-QuadWash-TrueSteam-3rd-Rack-42-dBA-LDT7808SS/308727665</t>
-  </si>
-  <si>
-    <t>https://www.homedepot.com/p/LG-Electronics-24-in-PrintProof-Stainless-Steel-Top-Control-Built-In-Smart-Dishwasher-with-Stainless-Steel-Tub-and-QuadWash-44-dBA-LDP6810SS/313097089</t>
-  </si>
-  <si>
     <t>https://www.homedepot.com/p/LG-Electronics-24-in-PrintProof-Stainless-Steel-Front-Control-Dishwasher-with-QuadWash-3rd-Rack-Dynamic-Dry-48-dBA-LDFN4542S/315707912</t>
   </si>
   <si>
-    <t>https://www.homedepot.com/p/LG-Electronics-24-in-PrintProof-Stainless-Steel-Front-Control-Built-In-Tall-Tub-Dishwasher-with-QuadWash-3rd-Rack-SmartThinQ-46-dBA-LDF5678SS/310793974</t>
-  </si>
-  <si>
-    <t>https://www.homedepot.com/p/LG-Electronics-24-in-PrintProof-Stainless-Steel-Top-Control-Built-In-Tall-Tub-Dishwasher-QuadWash-3rd-Rack-EasyRack-Plus-46-dBA-LDT5678SS/310622934</t>
-  </si>
-  <si>
-    <t>https://www.homedepot.com/p/LG-Electronics-24-in-PrintProof-Stainless-Steel-Front-Control-Built-In-Tall-Tub-Dishwasher-with-Stainless-Steel-Tub-QuadWash-48-dBA-LDF5545SS/309823463</t>
+    <t>Model #DW50T6060US</t>
+  </si>
+  <si>
+    <t>Model #DW80R7061US</t>
+  </si>
+  <si>
+    <t>Model #DW80N3030US</t>
+  </si>
+  <si>
+    <t>Model #DW80R2031US</t>
   </si>
   <si>
     <t>Model #DW80R5060US</t>
@@ -124,136 +136,133 @@
     <t>Model #DW80R9950US</t>
   </si>
   <si>
-    <t>Model #DW80R2031US</t>
-  </si>
-  <si>
-    <t>Model #DW80N3030US</t>
-  </si>
-  <si>
     <t>Model #DW80R2031UG</t>
   </si>
   <si>
-    <t>Model #DW50T6060US</t>
-  </si>
-  <si>
     <t>Model #DW60R2014US</t>
   </si>
   <si>
-    <t>Model #DW80R7061US</t>
+    <t>Model #LDT7808SS</t>
+  </si>
+  <si>
+    <t>Model #LDF5545SS</t>
+  </si>
+  <si>
+    <t>Model #LDT5678SS</t>
+  </si>
+  <si>
+    <t>Model #LDP6810SS</t>
+  </si>
+  <si>
+    <t>Model #ADFD5448AT</t>
   </si>
   <si>
     <t>Model #LDP6810BD</t>
   </si>
   <si>
-    <t>Model #ADFD5448AT</t>
+    <t>Model #LDF5678SS</t>
   </si>
   <si>
     <t>Model #LDFN3432T</t>
   </si>
   <si>
-    <t>Model #LDT7808SS</t>
-  </si>
-  <si>
-    <t>Model #LDP6810SS</t>
-  </si>
-  <si>
     <t>Model #LDFN4542S</t>
   </si>
   <si>
-    <t>Model #LDF5678SS</t>
-  </si>
-  <si>
-    <t>Model #LDT5678SS</t>
-  </si>
-  <si>
-    <t>Model #LDF5545SS</t>
-  </si>
-  <si>
     <t>No</t>
   </si>
   <si>
+    <t>Stainless Steel</t>
+  </si>
+  <si>
     <t>Fingerprint Resistant Stainless Steel</t>
   </si>
   <si>
-    <t>Stainless Steel</t>
-  </si>
-  <si>
     <t>Black Stainless Steel</t>
   </si>
   <si>
+    <t>Printproof Stainless Steel</t>
+  </si>
+  <si>
+    <t>PrintProof Stainless Steel</t>
+  </si>
+  <si>
     <t>PrintProof Black Stainless Steel</t>
   </si>
   <si>
-    <t>Printproof Stainless Steel</t>
-  </si>
-  <si>
-    <t>PrintProof Stainless Steel</t>
+    <t>259</t>
+  </si>
+  <si>
+    <t>239</t>
+  </si>
+  <si>
+    <t>255</t>
   </si>
   <si>
     <t>265</t>
   </si>
   <si>
-    <t>239</t>
-  </si>
-  <si>
-    <t>255</t>
-  </si>
-  <si>
-    <t>259</t>
-  </si>
-  <si>
     <t>258</t>
   </si>
   <si>
+    <t>46 dBA</t>
+  </si>
+  <si>
+    <t>42 dBA</t>
+  </si>
+  <si>
+    <t>51 dBA</t>
+  </si>
+  <si>
+    <t>55 dBA</t>
+  </si>
+  <si>
     <t>48 dBA</t>
   </si>
   <si>
     <t>39 DBA</t>
   </si>
   <si>
-    <t>55 dBA</t>
-  </si>
-  <si>
-    <t>51 dBA</t>
-  </si>
-  <si>
-    <t>46 dBA</t>
-  </si>
-  <si>
     <t>52 dBA</t>
   </si>
   <si>
-    <t>42 dBA</t>
-  </si>
-  <si>
     <t>44 dBA</t>
   </si>
   <si>
     <t>50 dBA</t>
   </si>
   <si>
+    <t>32.08</t>
+  </si>
+  <si>
+    <t>34.5</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>33.75</t>
+  </si>
+  <si>
     <t>33.875</t>
   </si>
   <si>
     <t>35</t>
   </si>
   <si>
-    <t>33.75</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
     <t>33.75 in</t>
   </si>
   <si>
-    <t>32.08</t>
-  </si>
-  <si>
     <t>32.06</t>
   </si>
   <si>
-    <t>34.5</t>
+    <t>33.625 in</t>
+  </si>
+  <si>
+    <t>33.6 in</t>
+  </si>
+  <si>
+    <t>33.60 in</t>
   </si>
   <si>
     <t>33.6</t>
@@ -265,19 +274,10 @@
     <t>33.63 in</t>
   </si>
   <si>
-    <t>33.625 in</t>
-  </si>
-  <si>
-    <t>33.60 in</t>
-  </si>
-  <si>
-    <t>33.6 in</t>
+    <t>18 In.</t>
   </si>
   <si>
     <t>24 In.</t>
-  </si>
-  <si>
-    <t>18 In.</t>
   </si>
 </sst>
 </file>
@@ -709,13 +709,13 @@
         <v>34</v>
       </c>
       <c r="E2">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="F2">
-        <v>1567</v>
+        <v>19</v>
       </c>
       <c r="G2">
-        <v>718</v>
+        <v>768</v>
       </c>
       <c r="H2" t="s">
         <v>51</v>
@@ -753,16 +753,16 @@
         <v>88</v>
       </c>
       <c r="F3">
-        <v>932</v>
+        <v>611</v>
       </c>
       <c r="G3">
-        <v>998</v>
+        <v>858</v>
       </c>
       <c r="H3" t="s">
         <v>51</v>
       </c>
       <c r="I3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J3" t="s">
         <v>59</v>
@@ -774,7 +774,7 @@
         <v>73</v>
       </c>
       <c r="M3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -791,22 +791,22 @@
         <v>36</v>
       </c>
       <c r="E4">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F4">
-        <v>1255</v>
+        <v>1101</v>
       </c>
       <c r="G4">
-        <v>478</v>
+        <v>588</v>
       </c>
       <c r="H4" t="s">
         <v>51</v>
       </c>
       <c r="I4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K4" t="s">
         <v>65</v>
@@ -815,7 +815,7 @@
         <v>74</v>
       </c>
       <c r="M4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -832,22 +832,22 @@
         <v>37</v>
       </c>
       <c r="E5">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F5">
-        <v>1101</v>
+        <v>1255</v>
       </c>
       <c r="G5">
-        <v>588</v>
+        <v>478</v>
       </c>
       <c r="H5" t="s">
         <v>51</v>
       </c>
       <c r="I5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K5" t="s">
         <v>66</v>
@@ -856,7 +856,7 @@
         <v>75</v>
       </c>
       <c r="M5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -873,31 +873,31 @@
         <v>38</v>
       </c>
       <c r="E6">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="F6">
-        <v>218</v>
+        <v>1567</v>
       </c>
       <c r="G6">
-        <v>566</v>
+        <v>718</v>
       </c>
       <c r="H6" t="s">
         <v>51</v>
       </c>
       <c r="I6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="L6" t="s">
         <v>76</v>
       </c>
       <c r="M6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -914,13 +914,13 @@
         <v>39</v>
       </c>
       <c r="E7">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="F7">
-        <v>19</v>
+        <v>932</v>
       </c>
       <c r="G7">
-        <v>768</v>
+        <v>998</v>
       </c>
       <c r="H7" t="s">
         <v>51</v>
@@ -929,10 +929,10 @@
         <v>53</v>
       </c>
       <c r="J7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L7" t="s">
         <v>77</v>
@@ -955,31 +955,31 @@
         <v>40</v>
       </c>
       <c r="E8">
-        <v>68</v>
+        <v>92</v>
       </c>
       <c r="F8">
-        <v>74</v>
+        <v>218</v>
       </c>
       <c r="G8">
-        <v>678</v>
+        <v>566</v>
       </c>
       <c r="H8" t="s">
         <v>51</v>
       </c>
       <c r="I8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J8" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="L8" t="s">
         <v>78</v>
       </c>
       <c r="M8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -996,13 +996,13 @@
         <v>41</v>
       </c>
       <c r="E9">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="F9">
-        <v>611</v>
+        <v>74</v>
       </c>
       <c r="G9">
-        <v>858</v>
+        <v>678</v>
       </c>
       <c r="H9" t="s">
         <v>51</v>
@@ -1011,7 +1011,7 @@
         <v>52</v>
       </c>
       <c r="J9" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K9" t="s">
         <v>69</v>
@@ -1020,7 +1020,7 @@
         <v>79</v>
       </c>
       <c r="M9" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -1040,10 +1040,10 @@
         <v>86</v>
       </c>
       <c r="F10">
-        <v>275</v>
+        <v>549</v>
       </c>
       <c r="G10">
-        <v>1049</v>
+        <v>1149</v>
       </c>
       <c r="H10" t="s">
         <v>51</v>
@@ -1055,13 +1055,13 @@
         <v>62</v>
       </c>
       <c r="K10" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="L10" t="s">
         <v>80</v>
       </c>
       <c r="M10" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -1078,31 +1078,31 @@
         <v>43</v>
       </c>
       <c r="E11">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="F11">
-        <v>4</v>
+        <v>2815</v>
       </c>
       <c r="G11">
-        <v>799</v>
+        <v>749</v>
       </c>
       <c r="H11" t="s">
         <v>51</v>
       </c>
       <c r="I11" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="J11" t="s">
         <v>62</v>
       </c>
       <c r="K11" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="L11" t="s">
         <v>81</v>
       </c>
       <c r="M11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -1119,31 +1119,31 @@
         <v>44</v>
       </c>
       <c r="E12">
-        <v>20</v>
+        <v>84</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>767</v>
       </c>
       <c r="G12">
-        <v>649</v>
+        <v>849</v>
       </c>
       <c r="H12" t="s">
         <v>51</v>
       </c>
       <c r="I12" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="J12" t="s">
         <v>62</v>
       </c>
       <c r="K12" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="L12" t="s">
         <v>82</v>
       </c>
       <c r="M12" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1163,10 +1163,10 @@
         <v>86</v>
       </c>
       <c r="F13">
-        <v>549</v>
+        <v>276</v>
       </c>
       <c r="G13">
-        <v>1149</v>
+        <v>999</v>
       </c>
       <c r="H13" t="s">
         <v>51</v>
@@ -1178,13 +1178,13 @@
         <v>62</v>
       </c>
       <c r="K13" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L13" t="s">
         <v>83</v>
       </c>
       <c r="M13" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -1201,31 +1201,31 @@
         <v>46</v>
       </c>
       <c r="E14">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="F14">
-        <v>276</v>
+        <v>4</v>
       </c>
       <c r="G14">
-        <v>999</v>
+        <v>799</v>
       </c>
       <c r="H14" t="s">
         <v>51</v>
       </c>
       <c r="I14" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="J14" t="s">
         <v>62</v>
       </c>
       <c r="K14" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="L14" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="M14" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -1242,13 +1242,13 @@
         <v>47</v>
       </c>
       <c r="E15">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F15">
-        <v>489</v>
+        <v>276</v>
       </c>
       <c r="G15">
-        <v>749</v>
+        <v>1049</v>
       </c>
       <c r="H15" t="s">
         <v>51</v>
@@ -1260,13 +1260,13 @@
         <v>62</v>
       </c>
       <c r="K15" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="L15" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M15" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -1295,19 +1295,19 @@
         <v>51</v>
       </c>
       <c r="I16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J16" t="s">
         <v>62</v>
       </c>
       <c r="K16" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="L16" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="M16" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -1324,31 +1324,31 @@
         <v>49</v>
       </c>
       <c r="E17">
-        <v>84</v>
+        <v>20</v>
       </c>
       <c r="F17">
-        <v>767</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>849</v>
+        <v>649</v>
       </c>
       <c r="H17" t="s">
         <v>51</v>
       </c>
       <c r="I17" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="J17" t="s">
         <v>62</v>
       </c>
       <c r="K17" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="L17" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M17" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1365,10 +1365,10 @@
         <v>50</v>
       </c>
       <c r="E18">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="F18">
-        <v>2815</v>
+        <v>489</v>
       </c>
       <c r="G18">
         <v>749</v>
@@ -1377,19 +1377,19 @@
         <v>51</v>
       </c>
       <c r="I18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J18" t="s">
         <v>62</v>
       </c>
       <c r="K18" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="L18" t="s">
         <v>85</v>
       </c>
       <c r="M18" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1406,13 +1406,13 @@
         <v>34</v>
       </c>
       <c r="E19">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="F19">
-        <v>1567</v>
+        <v>19</v>
       </c>
       <c r="G19">
-        <v>718</v>
+        <v>768</v>
       </c>
       <c r="H19" t="s">
         <v>51</v>
@@ -1450,16 +1450,16 @@
         <v>88</v>
       </c>
       <c r="F20">
-        <v>932</v>
+        <v>611</v>
       </c>
       <c r="G20">
-        <v>998</v>
+        <v>858</v>
       </c>
       <c r="H20" t="s">
         <v>51</v>
       </c>
       <c r="I20" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J20" t="s">
         <v>59</v>
@@ -1471,7 +1471,7 @@
         <v>73</v>
       </c>
       <c r="M20" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1488,22 +1488,22 @@
         <v>36</v>
       </c>
       <c r="E21">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F21">
-        <v>1255</v>
+        <v>1101</v>
       </c>
       <c r="G21">
-        <v>478</v>
+        <v>588</v>
       </c>
       <c r="H21" t="s">
         <v>51</v>
       </c>
       <c r="I21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J21" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K21" t="s">
         <v>65</v>
@@ -1512,7 +1512,7 @@
         <v>74</v>
       </c>
       <c r="M21" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1529,22 +1529,22 @@
         <v>37</v>
       </c>
       <c r="E22">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F22">
-        <v>1101</v>
+        <v>1255</v>
       </c>
       <c r="G22">
-        <v>588</v>
+        <v>478</v>
       </c>
       <c r="H22" t="s">
         <v>51</v>
       </c>
       <c r="I22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K22" t="s">
         <v>66</v>
@@ -1553,7 +1553,7 @@
         <v>75</v>
       </c>
       <c r="M22" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1570,31 +1570,31 @@
         <v>38</v>
       </c>
       <c r="E23">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="F23">
-        <v>218</v>
+        <v>1567</v>
       </c>
       <c r="G23">
-        <v>566</v>
+        <v>718</v>
       </c>
       <c r="H23" t="s">
         <v>51</v>
       </c>
       <c r="I23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J23" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K23" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="L23" t="s">
         <v>76</v>
       </c>
       <c r="M23" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1611,13 +1611,13 @@
         <v>39</v>
       </c>
       <c r="E24">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="F24">
-        <v>19</v>
+        <v>932</v>
       </c>
       <c r="G24">
-        <v>768</v>
+        <v>998</v>
       </c>
       <c r="H24" t="s">
         <v>51</v>
@@ -1626,10 +1626,10 @@
         <v>53</v>
       </c>
       <c r="J24" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K24" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L24" t="s">
         <v>77</v>
@@ -1652,31 +1652,31 @@
         <v>40</v>
       </c>
       <c r="E25">
-        <v>68</v>
+        <v>92</v>
       </c>
       <c r="F25">
-        <v>74</v>
+        <v>218</v>
       </c>
       <c r="G25">
-        <v>678</v>
+        <v>566</v>
       </c>
       <c r="H25" t="s">
         <v>51</v>
       </c>
       <c r="I25" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J25" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K25" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="L25" t="s">
         <v>78</v>
       </c>
       <c r="M25" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -1693,13 +1693,13 @@
         <v>41</v>
       </c>
       <c r="E26">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="F26">
-        <v>611</v>
+        <v>74</v>
       </c>
       <c r="G26">
-        <v>858</v>
+        <v>678</v>
       </c>
       <c r="H26" t="s">
         <v>51</v>
@@ -1708,7 +1708,7 @@
         <v>52</v>
       </c>
       <c r="J26" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K26" t="s">
         <v>69</v>
@@ -1717,7 +1717,7 @@
         <v>79</v>
       </c>
       <c r="M26" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -1737,10 +1737,10 @@
         <v>86</v>
       </c>
       <c r="F27">
-        <v>276</v>
+        <v>549</v>
       </c>
       <c r="G27">
-        <v>1049</v>
+        <v>1149</v>
       </c>
       <c r="H27" t="s">
         <v>51</v>
@@ -1752,13 +1752,13 @@
         <v>62</v>
       </c>
       <c r="K27" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="L27" t="s">
         <v>80</v>
       </c>
       <c r="M27" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="28" spans="1:13">
@@ -1775,31 +1775,31 @@
         <v>43</v>
       </c>
       <c r="E28">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="F28">
-        <v>4</v>
+        <v>2815</v>
       </c>
       <c r="G28">
-        <v>799</v>
+        <v>749</v>
       </c>
       <c r="H28" t="s">
         <v>51</v>
       </c>
       <c r="I28" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="J28" t="s">
         <v>62</v>
       </c>
       <c r="K28" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="L28" t="s">
         <v>81</v>
       </c>
       <c r="M28" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="29" spans="1:13">
@@ -1816,31 +1816,31 @@
         <v>44</v>
       </c>
       <c r="E29">
-        <v>20</v>
+        <v>84</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>767</v>
       </c>
       <c r="G29">
-        <v>649</v>
+        <v>849</v>
       </c>
       <c r="H29" t="s">
         <v>51</v>
       </c>
       <c r="I29" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="J29" t="s">
         <v>62</v>
       </c>
       <c r="K29" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="L29" t="s">
         <v>82</v>
       </c>
       <c r="M29" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="30" spans="1:13">
@@ -1860,10 +1860,10 @@
         <v>86</v>
       </c>
       <c r="F30">
-        <v>549</v>
+        <v>276</v>
       </c>
       <c r="G30">
-        <v>1149</v>
+        <v>999</v>
       </c>
       <c r="H30" t="s">
         <v>51</v>
@@ -1875,13 +1875,13 @@
         <v>62</v>
       </c>
       <c r="K30" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L30" t="s">
         <v>83</v>
       </c>
       <c r="M30" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="31" spans="1:13">
@@ -1898,31 +1898,31 @@
         <v>46</v>
       </c>
       <c r="E31">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="F31">
-        <v>276</v>
+        <v>4</v>
       </c>
       <c r="G31">
-        <v>999</v>
+        <v>799</v>
       </c>
       <c r="H31" t="s">
         <v>51</v>
       </c>
       <c r="I31" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="J31" t="s">
         <v>62</v>
       </c>
       <c r="K31" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="L31" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="M31" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="32" spans="1:13">
@@ -1939,13 +1939,13 @@
         <v>47</v>
       </c>
       <c r="E32">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F32">
-        <v>489</v>
+        <v>276</v>
       </c>
       <c r="G32">
-        <v>749</v>
+        <v>1049</v>
       </c>
       <c r="H32" t="s">
         <v>51</v>
@@ -1957,13 +1957,13 @@
         <v>62</v>
       </c>
       <c r="K32" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="L32" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M32" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="33" spans="1:13">
@@ -1992,19 +1992,19 @@
         <v>51</v>
       </c>
       <c r="I33" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J33" t="s">
         <v>62</v>
       </c>
       <c r="K33" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="L33" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="M33" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="34" spans="1:13">
@@ -2021,31 +2021,31 @@
         <v>49</v>
       </c>
       <c r="E34">
-        <v>84</v>
+        <v>20</v>
       </c>
       <c r="F34">
-        <v>767</v>
+        <v>1</v>
       </c>
       <c r="G34">
-        <v>849</v>
+        <v>649</v>
       </c>
       <c r="H34" t="s">
         <v>51</v>
       </c>
       <c r="I34" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="J34" t="s">
         <v>62</v>
       </c>
       <c r="K34" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="L34" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M34" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="35" spans="1:13">
@@ -2062,10 +2062,10 @@
         <v>50</v>
       </c>
       <c r="E35">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="F35">
-        <v>2815</v>
+        <v>489</v>
       </c>
       <c r="G35">
         <v>749</v>
@@ -2074,19 +2074,19 @@
         <v>51</v>
       </c>
       <c r="I35" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J35" t="s">
         <v>62</v>
       </c>
       <c r="K35" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="L35" t="s">
         <v>85</v>
       </c>
       <c r="M35" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
